--- a/25th Feb Batch/student_data.xlsx
+++ b/25th Feb Batch/student_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73638FB9-EF74-4ED8-8B75-1FE423276FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683474B0-B27A-4F25-A24C-578F1D3812DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Marks</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>akash</t>
   </si>
@@ -61,6 +55,81 @@
   </si>
   <si>
     <t>kaushik</t>
+  </si>
+  <si>
+    <t>1st method - dropping missing values</t>
+  </si>
+  <si>
+    <t>handling The missing Value with 0</t>
+  </si>
+  <si>
+    <t>handling with mean</t>
+  </si>
+  <si>
+    <t>Handling with median value</t>
+  </si>
+  <si>
+    <t>70 missing</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>income group</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xws</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>TRT</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>3QRRTE</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>FDG</t>
+  </si>
+  <si>
+    <t>low income</t>
+  </si>
+  <si>
+    <t>high income</t>
+  </si>
+  <si>
+    <t>medium income</t>
   </si>
 </sst>
 </file>
@@ -84,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -107,13 +176,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -396,83 +503,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.36328125" customWidth="1"/>
     <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>98</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>75</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>75</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>94</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>94</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>66</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>66</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>66</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>98</v>
+      </c>
+      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>94</v>
+      </c>
+      <c r="F12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>94</v>
+      </c>
+      <c r="F15">
+        <v>98</v>
+      </c>
+      <c r="G15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>98</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E23:F23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>